--- a/RUDN/Importance/Varible_muatal_reg_in_Western Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Western Asia.xlsx
@@ -28,15 +28,15 @@
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -61,12 +61,12 @@
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -118,27 +118,27 @@
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+    <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -151,15 +151,15 @@
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
@@ -250,15 +250,15 @@
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Female population 00-04</t>
   </si>
   <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
@@ -274,6 +274,9 @@
     <t>Population ages 15-64, female</t>
   </si>
   <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
@@ -295,9 +298,6 @@
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
@@ -325,15 +325,15 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
@@ -382,16 +382,19 @@
     <t>Labor force, female</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Age population, age 15, male, interpolated</t>
@@ -412,72 +415,69 @@
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
@@ -580,15 +580,15 @@
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
     <t>Age population, age 10, male, interpolated</t>
   </si>
   <si>
     <t>Male population 05-09</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
@@ -607,24 +607,24 @@
     <t>Urban population</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
     <t>Male population 50-54</t>
   </si>
   <si>
@@ -640,16 +640,19 @@
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
+    <t>Female population 30-34</t>
   </si>
   <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Female population 30-34</t>
+    <t>Internet users (per 100 people)</t>
   </si>
   <si>
     <t>Female population 70-74</t>
@@ -658,27 +661,24 @@
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -739,12 +739,12 @@
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
@@ -754,15 +754,15 @@
     <t>Children out of school, primary, male</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
@@ -790,12 +790,12 @@
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
@@ -826,12 +826,12 @@
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
@@ -883,33 +883,33 @@
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
+    <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
     <t>Employers, male (% of male employment)</t>
   </si>
   <si>
@@ -931,12 +931,12 @@
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
@@ -946,48 +946,48 @@
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
+    <t>Time required to start a business, male (days)</t>
   </si>
   <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Poverty headcount ratio at national poverty line (% of population)</t>
   </si>
   <si>
@@ -1021,24 +1021,24 @@
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
     <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
@@ -1060,27 +1060,27 @@
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
@@ -1165,21 +1165,21 @@
     <t>Income share held by lowest 20%</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
   </si>
   <si>
@@ -1258,15 +1258,15 @@
     <t>Expected years of schooling, female</t>
   </si>
   <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
   </si>
   <si>
@@ -1333,15 +1333,15 @@
     <t>Literacy rate, adult female (% of females ages 15 and above)</t>
   </si>
   <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
@@ -1516,13 +1516,13 @@
     <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
     <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
   </si>
   <si>
     <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.497702069747832</v>
+        <v>1.49940736231851</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.340701032825754</v>
+        <v>1.339147246897472</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.320326597453231</v>
+        <v>1.321111545250544</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.318806664206137</v>
+        <v>1.317197182959763</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.229117532697694</v>
+        <v>1.224868990534319</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.212573745429139</v>
+        <v>1.213317967890115</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.197280983872563</v>
+        <v>1.189393283508517</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.189393283508517</v>
+        <v>1.188075973552345</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.165434838312217</v>
+        <v>1.164887469856873</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.14661294931483</v>
+        <v>1.146820271652907</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.074748154315868</v>
+        <v>1.078785563733449</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.069614287829109</v>
+        <v>1.073017267031508</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.067227646206627</v>
+        <v>1.068900685597481</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.06706308171837</v>
+        <v>1.067227646206627</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.063096765487382</v>
+        <v>1.063020229625244</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.063020229625244</v>
+        <v>1.062279772023329</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.060684947116907</v>
+        <v>1.059174739367688</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.059174739367688</v>
+        <v>1.058281862532296</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.053336660781542</v>
+        <v>1.054764836969749</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.047550750543542</v>
+        <v>1.046884752733878</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.046884752733878</v>
+        <v>1.042769814121716</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.042769814121716</v>
+        <v>1.036813571056362</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9946851489572626</v>
+        <v>0.9949613150988132</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9889532473005374</v>
+        <v>0.9912443131014941</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.988393747563892</v>
+        <v>0.9901729396316874</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9678920898117989</v>
+        <v>0.9693860460398493</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.963560632948687</v>
+        <v>0.9605265230146123</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9584230676909367</v>
+        <v>0.9596135438814128</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9569364247584029</v>
+        <v>0.9571367452712236</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9447285920642416</v>
+        <v>0.9486038816523297</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9388887876378944</v>
+        <v>0.9392321942313009</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.9382025964616045</v>
+        <v>0.9382738177191072</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.908439885325425</v>
+        <v>0.9090320351111232</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.907169049371146</v>
+        <v>0.9082609028276987</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9070233550247391</v>
+        <v>0.907169049371146</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9061280204616122</v>
+        <v>0.9070233550247391</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8971476455831704</v>
+        <v>0.9008053602126287</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.8958144026774919</v>
+        <v>0.8971476455831704</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8957058075136888</v>
+        <v>0.8958144026774919</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8949214830862426</v>
+        <v>0.8957058075136888</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.8928640213893448</v>
+        <v>0.8949214830862426</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8925868817310456</v>
+        <v>0.8928640213893448</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.8912577779093107</v>
+        <v>0.8925868817310456</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.8907299081163558</v>
+        <v>0.8912577779093107</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.8810696606467139</v>
+        <v>0.8809578538488605</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.8779536391975706</v>
+        <v>0.8779593812638167</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.877740849795285</v>
+        <v>0.8779536391975706</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8452423984446922</v>
+        <v>0.8451220676785072</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8451220676785072</v>
+        <v>0.8449955494598833</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.8449955494598833</v>
+        <v>0.8440075444179338</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8440075444179338</v>
+        <v>0.8421672212322893</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8417296800682745</v>
+        <v>0.8419046422469556</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8412239254612333</v>
+        <v>0.8417296800682745</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8402603834494085</v>
+        <v>0.8412239254612333</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8383159633574175</v>
+        <v>0.8402603834494085</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.837153429105566</v>
+        <v>0.8383159633574175</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.8310242445162519</v>
+        <v>0.837153429105566</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8306677966845974</v>
+        <v>0.8310242445162519</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.8287566217296494</v>
+        <v>0.8283195587925865</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.8246429397767834</v>
+        <v>0.8239713516911285</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8239713516911285</v>
+        <v>0.8230916440801184</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.8235478512841397</v>
+        <v>0.8228886146874035</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8230916440801184</v>
+        <v>0.822856066111405</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8222535020072463</v>
+        <v>0.8204823097818204</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.8204823097818204</v>
+        <v>0.8200979313193297</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8200979313193297</v>
+        <v>0.8191610025813811</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.8191610025813811</v>
+        <v>0.8177346900124136</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.8177346900124136</v>
+        <v>0.8171853141708891</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.8171853141708891</v>
+        <v>0.8150063840674924</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.8150063840674924</v>
+        <v>0.8148111756979479</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.8148209680972398</v>
+        <v>0.8145381626673758</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.814768689830736</v>
+        <v>0.812879847244723</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.812879847244723</v>
+        <v>0.812748436137015</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.812748436137015</v>
+        <v>0.8124696709385599</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.8124696709385599</v>
+        <v>0.8118501662105273</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.8118501662105273</v>
+        <v>0.8106383883864083</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.8106383883864083</v>
+        <v>0.8084919547074532</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.8084919547074532</v>
+        <v>0.8076789557675221</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.7956803721138299</v>
+        <v>0.7954399874984457</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.7930258719424743</v>
+        <v>0.7927293823789068</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.7801594506833918</v>
+        <v>0.78030513832908</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.7790024537907443</v>
+        <v>0.7788352598839463</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.7576360402573123</v>
+        <v>0.7579799022488651</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.7575973486530421</v>
+        <v>0.7576360402573123</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.7572499383716744</v>
+        <v>0.7575973486530421</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.7435804105561361</v>
+        <v>0.7436383345598434</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.7404507175150092</v>
+        <v>0.7415587203116463</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.7403337113368464</v>
+        <v>0.7404507175150092</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.7393341238370339</v>
+        <v>0.7403337113368464</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.737460031809801</v>
+        <v>0.737050888312266</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.737050888312266</v>
+        <v>0.7367940063838581</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.7286640743176647</v>
+        <v>0.7282634332920233</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.7222192764278086</v>
+        <v>0.7237522383009498</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.7209312571413609</v>
+        <v>0.7214120263721302</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.7177915656243194</v>
+        <v>0.7154743515308795</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.7154743515308795</v>
+        <v>0.7100767864381448</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.7136543868847327</v>
+        <v>0.7053797313227568</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.7053797313227568</v>
+        <v>0.7051280305498779</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.7040078857568428</v>
+        <v>0.7044007094980551</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.7039347693448939</v>
+        <v>0.7040078857568428</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.7035391306166252</v>
+        <v>0.7039347693448939</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.7033142452675514</v>
+        <v>0.7032161290980068</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.6918322250318867</v>
+        <v>0.689899322972547</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.6901129981862222</v>
+        <v>0.6844520806330556</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.6844520806330556</v>
+        <v>0.6810876038879141</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.6824568649234881</v>
+        <v>0.6799984307787565</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.6495018385901044</v>
+        <v>0.6486495458507924</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.6380932686394485</v>
+        <v>0.6430393040065256</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.6369481075333558</v>
+        <v>0.639971808152024</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.6170360490949482</v>
+        <v>0.6183924970067043</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.6093866933424592</v>
+        <v>0.6143854093963639</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.6083225519605233</v>
+        <v>0.6094391591762895</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.584650596401044</v>
+        <v>0.5926129077915583</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.582356479789917</v>
+        <v>0.5829697310180606</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.5509481572018555</v>
+        <v>0.5588146322380352</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.5289747968035692</v>
+        <v>0.5326043793862438</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3853,7 +3853,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.5192131451694229</v>
+        <v>0.5240121087467426</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.5060718484355413</v>
+        <v>0.5054710656084129</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3885,7 +3885,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.5003233124562572</v>
+        <v>0.4937319188433724</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3893,7 +3893,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4950680915109307</v>
+        <v>0.4923272997110018</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3901,7 +3901,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.4923462542850112</v>
+        <v>0.4901176120043265</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4899911883229444</v>
+        <v>0.4859940882936178</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4837517290040447</v>
+        <v>0.4824864492166554</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4294909614344284</v>
+        <v>0.4294108332293005</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.4009695830417528</v>
+        <v>0.4012759368996519</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3969815427835248</v>
+        <v>0.3965026106395022</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3957,7 +3957,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3955437433256568</v>
+        <v>0.3949235814731835</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.3861134509037187</v>
+        <v>0.3863222690452908</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3835698616993533</v>
+        <v>0.37972254238214</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3832879678947811</v>
+        <v>0.378241254601634</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3764248974160342</v>
+        <v>0.3767044366019781</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.376394276506689</v>
+        <v>0.3760937957374582</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.3625611055221261</v>
+        <v>0.3615092107612461</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.3567718491250871</v>
+        <v>0.3569832017820922</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.3540975248714782</v>
+        <v>0.3543632355628965</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3489996970677454</v>
+        <v>0.3504740522730514</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.3486480678654726</v>
+        <v>0.3485192903929453</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4069,7 +4069,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.3470694704194504</v>
+        <v>0.3449555215663711</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.3401590243815118</v>
+        <v>0.3402523527358965</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4085,7 +4085,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.334719171697949</v>
+        <v>0.3366038430769631</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4093,7 +4093,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.3338695439014121</v>
+        <v>0.3336797446655606</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4109,7 +4109,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.3296276479895446</v>
+        <v>0.3291054208911173</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.3286076936289006</v>
+        <v>0.3281658640035141</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.3277576399034936</v>
+        <v>0.3253758849812687</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4141,7 +4141,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.3220478607626949</v>
+        <v>0.3224816538614523</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.3209149746020108</v>
+        <v>0.3208442732445445</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4165,7 +4165,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.3177347266770794</v>
+        <v>0.3178423576711789</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4181,7 +4181,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.3135716262460559</v>
+        <v>0.3139488451809673</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4205,7 +4205,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.3049346388684808</v>
+        <v>0.3048759531398442</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4213,7 +4213,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.3009670932402368</v>
+        <v>0.3010050136995357</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4221,7 +4221,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2967676687474075</v>
+        <v>0.2966422443644567</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2911868631090564</v>
+        <v>0.2917056428315834</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.2855925033313194</v>
+        <v>0.2910584518920927</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4245,7 +4245,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2848353659446023</v>
+        <v>0.2851259995407285</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4253,7 +4253,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2827999627825668</v>
+        <v>0.2788212205232903</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4261,7 +4261,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2780805728684472</v>
+        <v>0.2764397699348622</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4269,7 +4269,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2761650055954774</v>
+        <v>0.2759125821968078</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4277,7 +4277,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2759125821968078</v>
+        <v>0.2746212370623691</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4285,7 +4285,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2714182437655488</v>
+        <v>0.272756259142616</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4293,7 +4293,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2708217179863048</v>
+        <v>0.2714182437655488</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4309,7 +4309,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2698273598572303</v>
+        <v>0.2698048038729171</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2647783436848088</v>
+        <v>0.2649364501659437</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4325,7 +4325,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2617694845993754</v>
+        <v>0.2617962416708237</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4333,7 +4333,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2582559370655011</v>
+        <v>0.2588352684484037</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4349,7 +4349,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2521921421478845</v>
+        <v>0.2532354626474751</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4357,7 +4357,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2480325096608289</v>
+        <v>0.2492233567538336</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4365,7 +4365,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2478493014894216</v>
+        <v>0.2480019591077025</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4373,7 +4373,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2450666283313725</v>
+        <v>0.2436189179488031</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4381,7 +4381,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2422374473104181</v>
+        <v>0.2423977037206739</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4389,7 +4389,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.2418635161583982</v>
+        <v>0.2418112586333141</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.2418459921987508</v>
+        <v>0.2400741956673131</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4405,7 +4405,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.2400741956673131</v>
+        <v>0.2387286478083419</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4413,7 +4413,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.2385437365657388</v>
+        <v>0.2347044917714931</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4421,7 +4421,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.2347044917714931</v>
+        <v>0.234228012165711</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.23381584420002</v>
+        <v>0.2341935751713335</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2336938241315227</v>
+        <v>0.2339590520983446</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2333543653746319</v>
+        <v>0.2337652369125705</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.2314817688022124</v>
+        <v>0.2333543653746319</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2288647609245651</v>
+        <v>0.2287829087722189</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2287829087722189</v>
+        <v>0.2276352995828199</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4477,7 +4477,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.2281817438792648</v>
+        <v>0.2274730245951997</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4485,7 +4485,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.2274730245951997</v>
+        <v>0.2274586297905989</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4493,7 +4493,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.2260005093091952</v>
+        <v>0.2257172617147025</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4501,7 +4501,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.2257172617147025</v>
+        <v>0.2255998682835547</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4533,7 +4533,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2221172873204409</v>
+        <v>0.2222222795614328</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4549,7 +4549,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.2200575954069133</v>
+        <v>0.2202901660083687</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4557,7 +4557,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.2192464979672573</v>
+        <v>0.2191778522244516</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4565,7 +4565,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.2185325911129163</v>
+        <v>0.2175329521660794</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4589,7 +4589,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2142023592571356</v>
+        <v>0.2145447894704333</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4597,7 +4597,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.213493490727205</v>
+        <v>0.2129882749906307</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4605,7 +4605,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2129882749906307</v>
+        <v>0.212908756251976</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4629,7 +4629,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.2092847056569975</v>
+        <v>0.2095313338255047</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4637,7 +4637,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2087215939510734</v>
+        <v>0.2092847056569975</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2071439618353292</v>
+        <v>0.2063426797840473</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2017960740782205</v>
+        <v>0.2022261604143798</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.2012318036689669</v>
+        <v>0.2011834402749066</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1994331830258018</v>
+        <v>0.1991996916709912</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1991996916709912</v>
+        <v>0.1988805148795834</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1988805148795834</v>
+        <v>0.198860127886354</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.198860127886354</v>
+        <v>0.1986800524107137</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1982966059639266</v>
+        <v>0.1985615978976942</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1939292707713318</v>
+        <v>0.1939151163232933</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1895614050876429</v>
+        <v>0.1899304356184226</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.1888567180511433</v>
+        <v>0.1892063352264106</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.1871745224360259</v>
+        <v>0.1871813695463518</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.1866712499971317</v>
+        <v>0.1871381532102603</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1837000554573209</v>
+        <v>0.1837577559463299</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1809732367913646</v>
+        <v>0.1805859504665777</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.1800536695348269</v>
+        <v>0.1798561827047049</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1798464482950617</v>
+        <v>0.1794692935683988</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1798333823552374</v>
+        <v>0.1792340043619658</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.175951870887848</v>
+        <v>0.1759790329912811</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1756398779127324</v>
+        <v>0.175482518729319</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1750787310523065</v>
+        <v>0.1751471546601315</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1726398650329197</v>
+        <v>0.172744380083087</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1700709158611393</v>
+        <v>0.1700459786288293</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1699429566508071</v>
+        <v>0.1699990336729207</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1687646400988005</v>
+        <v>0.1688674185260468</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1674790586323387</v>
+        <v>0.1676643375347235</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1674724433745891</v>
+        <v>0.1674599861033941</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1665967770646324</v>
+        <v>0.1666028829194159</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.159936962505995</v>
+        <v>0.1599210042839747</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1596837835785001</v>
+        <v>0.1597064919767144</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1589936878969662</v>
+        <v>0.1590861435182682</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1502450769955077</v>
+        <v>0.1504416380227855</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1434980001548809</v>
+        <v>0.1434444929808143</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1425682485663953</v>
+        <v>0.1428842151057661</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1423772698017474</v>
+        <v>0.1424713307691436</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.134535196092691</v>
+        <v>0.134664267471762</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.1295277894696729</v>
+        <v>0.1307739309241491</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.1291675470945652</v>
+        <v>0.1295277894696729</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.1291298832828229</v>
+        <v>0.1291675470945652</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.1264266659320961</v>
+        <v>0.1262728099314656</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.1207537504573948</v>
+        <v>0.1229034540522058</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.1182180695513058</v>
+        <v>0.1189048827381205</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.11341451650441</v>
+        <v>0.1133774807405481</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.1076727556109334</v>
+        <v>0.1075813477978493</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.1035495955417138</v>
+        <v>0.1038851369383016</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.1035259813867104</v>
+        <v>0.1030491300618384</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.1030491300618384</v>
+        <v>0.1026518555125846</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.1024785218485404</v>
+        <v>0.1025452953528148</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.1003141730331643</v>
+        <v>0.1003359877744736</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.1001721130433268</v>
+        <v>0.1001375253288832</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.09804022726952022</v>
+        <v>0.09829301267855639</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.09763239410809166</v>
+        <v>0.09719495456351868</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.0831819332421635</v>
+        <v>0.08310796874512261</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.06048065950448001</v>
+        <v>0.06194964382323453</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.04787141403937456</v>
+        <v>0.04492852926715551</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.04115574975045111</v>
+        <v>0.04060046813747875</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.02934639832414798</v>
+        <v>0.02957064144556787</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.02917560379091499</v>
+        <v>0.02934639832414798</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.008264032890290096</v>
+        <v>0.008829165990057675</v>
       </c>
     </row>
     <row r="510" spans="1:2">
